--- a/api/data/Data_small_small.xlsx
+++ b/api/data/Data_small_small.xlsx
@@ -1,37 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\priceventsource\api\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54805ED-2138-4171-ADE7-F5326BB89F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>Id</t>
   </si>
@@ -45,15 +25,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -98,15 +91,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -115,85 +119,24 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Tema de Office">
       <a:dk1>
@@ -319,7 +262,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -328,7 +271,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -337,7 +280,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -411,7 +354,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -419,7 +362,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -438,7 +381,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -468,7 +411,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -494,7 +437,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -520,7 +463,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -546,7 +489,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -572,7 +515,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -598,7 +541,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -624,7 +567,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -650,7 +593,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -676,7 +619,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -689,15 +632,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -712,7 +649,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -720,7 +657,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -739,7 +676,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -765,7 +702,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -791,7 +728,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -817,7 +754,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -843,7 +780,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -869,7 +806,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -895,7 +832,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -921,7 +858,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -947,7 +884,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -973,7 +910,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -986,15 +923,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1008,7 +939,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1027,7 +958,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1057,7 +988,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1083,7 +1014,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,7 +1040,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1135,7 +1066,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,7 +1092,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,7 +1118,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1213,7 +1144,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1239,7 +1170,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1265,7 +1196,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1278,41 +1209,31 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:OP21"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:OP4108"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="9" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" defaultGridColor="0" colorId="9"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
-    <col min="2" max="406" width="10.85546875" style="3" customWidth="1"/>
-    <col min="407" max="407" width="10.85546875" style="1" customWidth="1"/>
-    <col min="408" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="11.5" style="2" customWidth="1"/>
+    <col min="2" max="406" width="10.8516" style="3" customWidth="1"/>
+    <col min="407" max="16384" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="2" customFormat="1" ht="13.55" customHeight="1">
+      <c r="A1" t="s" s="4">
         <v>0</v>
       </c>
       <c r="B1" s="3">
@@ -1328,56 +1249,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="2" customFormat="1" ht="13.55" customHeight="1">
+      <c r="A2" t="s" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>0.2</v>
+        <v>0.00279578768025191</v>
       </c>
       <c r="C2" s="3">
-        <v>0.4</v>
+        <v>0.00289850551633138</v>
       </c>
       <c r="D2" s="3">
-        <v>0.1</v>
+        <v>5.37597971097445e-05</v>
       </c>
       <c r="E2" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+        <v>0.00234406415188567</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="13.55" customHeight="1">
+      <c r="A3" t="s" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>0.99829813315786498</v>
+        <v>0.998298133157865</v>
       </c>
       <c r="C3" s="3">
-        <v>0.98492856628349301</v>
+        <v>0.984928566283493</v>
       </c>
       <c r="D3" s="3">
         <v>0.991066251222673</v>
       </c>
       <c r="E3" s="3">
-        <v>0.99610889133959801</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.996108891339598</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="13.55" customHeight="1">
       <c r="B4" s="3">
-        <v>1.0142419771898099</v>
+        <v>1.01424197718981</v>
       </c>
       <c r="C4" s="3">
-        <v>0.99926722337553797</v>
+        <v>0.999267223375538</v>
       </c>
       <c r="D4" s="3">
-        <v>1.0008210222592699</v>
+        <v>1.00082102225927</v>
       </c>
       <c r="E4" s="3">
-        <v>1.0061218368771601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.00612183687716</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="13.55" customHeight="1">
       <c r="B5" s="3">
         <v>1.01645181794382</v>
       </c>
@@ -1385,15 +1305,15 @@
         <v>0.997589732561178</v>
       </c>
       <c r="D5" s="3">
-        <v>1.0094267165612001</v>
+        <v>1.0094267165612</v>
       </c>
       <c r="E5" s="3">
         <v>1.00452159158146</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" s="3" customFormat="1" ht="13.55" customHeight="1">
       <c r="B6" s="3">
-        <v>1.0263962024651001</v>
+        <v>1.0263962024651</v>
       </c>
       <c r="C6" s="3">
         <v>1.00159010945044</v>
@@ -1402,10 +1322,10 @@
         <v>1.01275546791792</v>
       </c>
       <c r="E6" s="3">
-        <v>0.99383659101909505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.9938365910190951</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="13.55" customHeight="1">
       <c r="B7" s="3">
         <v>1.02604746245448</v>
       </c>
@@ -1413,13 +1333,13 @@
         <v>1.00261830816187</v>
       </c>
       <c r="D7" s="3">
-        <v>1.0237594677337101</v>
+        <v>1.02375946773371</v>
       </c>
       <c r="E7" s="3">
         <v>1.00964272515058</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" s="3" customFormat="1" ht="13.55" customHeight="1">
       <c r="B8" s="3">
         <v>1.02428533352856</v>
       </c>
@@ -1427,27 +1347,27 @@
         <v>1.01909432299778</v>
       </c>
       <c r="D8" s="3">
-        <v>1.0142087539220499</v>
+        <v>1.01420875392205</v>
       </c>
       <c r="E8" s="3">
         <v>1.01709886055167</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" s="3" customFormat="1" ht="13.55" customHeight="1">
       <c r="B9" s="3">
         <v>1.01876379662507</v>
       </c>
       <c r="C9" s="3">
-        <v>1.0189613516801099</v>
+        <v>1.01896135168011</v>
       </c>
       <c r="D9" s="3">
-        <v>1.0118529065286801</v>
+        <v>1.01185290652868</v>
       </c>
       <c r="E9" s="3">
         <v>1.02724642931098</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" s="3" customFormat="1" ht="13.55" customHeight="1">
       <c r="B10" s="3">
         <v>1.03317525486077</v>
       </c>
@@ -1455,161 +1375,161 @@
         <v>1.02438379928781</v>
       </c>
       <c r="D10" s="3">
-        <v>1.0107928611535899</v>
+        <v>1.01079286115359</v>
       </c>
       <c r="E10" s="3">
-        <v>1.0377771738986199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.03777717389862</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="13.55" customHeight="1">
       <c r="B11" s="3">
-        <v>1.0585092215194001</v>
+        <v>1.0585092215194</v>
       </c>
       <c r="C11" s="3">
         <v>1.03885090510846</v>
       </c>
       <c r="D11" s="3">
-        <v>1.0256159109932299</v>
+        <v>1.02561591099323</v>
       </c>
       <c r="E11" s="3">
         <v>1.04814257026996</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" s="3" customFormat="1" ht="13.55" customHeight="1">
       <c r="B12" s="3">
-        <v>1.0612313820305199</v>
+        <v>1.06123138203052</v>
       </c>
       <c r="C12" s="3">
-        <v>1.0301020032409101</v>
+        <v>1.03010200324091</v>
       </c>
       <c r="D12" s="3">
-        <v>1.0065348954528099</v>
+        <v>1.00653489545281</v>
       </c>
       <c r="E12" s="3">
-        <v>1.0481020294699499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.04810202946995</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="13.55" customHeight="1">
       <c r="B13" s="3">
-        <v>1.0581370478846599</v>
+        <v>1.05813704788466</v>
       </c>
       <c r="C13" s="3">
-        <v>1.0331000654507101</v>
+        <v>1.03310006545071</v>
       </c>
       <c r="D13" s="3">
-        <v>1.0166584460200001</v>
+        <v>1.016658446020</v>
       </c>
       <c r="E13" s="3">
         <v>1.05201359810065</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" s="3" customFormat="1" ht="13.55" customHeight="1">
       <c r="B14" s="3">
-        <v>0.99937954763109105</v>
+        <v>0.999379547631091</v>
       </c>
       <c r="C14" s="3">
-        <v>0.98965139481975695</v>
+        <v>0.9896513948197569</v>
       </c>
       <c r="D14" s="3">
-        <v>0.98258404586277903</v>
+        <v>0.982584045862779</v>
       </c>
       <c r="E14" s="3">
-        <v>1.0207717727119601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.02077177271196</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="13.55" customHeight="1">
       <c r="B15" s="3">
         <v>0.990503566184744</v>
       </c>
       <c r="C15" s="3">
-        <v>0.99458999034013995</v>
+        <v>0.99458999034014</v>
       </c>
       <c r="D15" s="3">
-        <v>0.97236586423916904</v>
+        <v>0.972365864239169</v>
       </c>
       <c r="E15" s="3">
-        <v>1.0161653060193201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.01616530601932</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="13.55" customHeight="1">
       <c r="B16" s="3">
-        <v>0.99376406960962005</v>
+        <v>0.99376406960962</v>
       </c>
       <c r="C16" s="3">
         <v>1.0203641488983</v>
       </c>
       <c r="D16" s="3">
-        <v>0.98209341461839395</v>
+        <v>0.9820934146183939</v>
       </c>
       <c r="E16" s="3">
         <v>1.02532801275414</v>
       </c>
     </row>
-    <row r="17" spans="2:5" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" s="3" customFormat="1" ht="13.55" customHeight="1">
       <c r="B17" s="3">
-        <v>0.97875395332269499</v>
+        <v>0.978753953322695</v>
       </c>
       <c r="C17" s="3">
-        <v>0.96489512480750095</v>
+        <v>0.9648951248075009</v>
       </c>
       <c r="D17" s="3">
-        <v>0.98295215751209197</v>
+        <v>0.982952157512092</v>
       </c>
       <c r="E17" s="3">
-        <v>1.0119107043956199</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.01191070439562</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="13.55" customHeight="1">
       <c r="B18" s="3">
-        <v>0.99207015495539796</v>
+        <v>0.992070154955398</v>
       </c>
       <c r="C18" s="3">
-        <v>0.95690458809174805</v>
+        <v>0.9569045880917481</v>
       </c>
       <c r="D18" s="3">
-        <v>0.98281107170462101</v>
+        <v>0.982811071704621</v>
       </c>
       <c r="E18" s="3">
-        <v>1.0270335661729999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.027033566173</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="13.55" customHeight="1">
       <c r="B19" s="3">
-        <v>0.98730751249418502</v>
+        <v>0.987307512494185</v>
       </c>
       <c r="C19" s="3">
-        <v>0.95830162833749699</v>
+        <v>0.958301628337497</v>
       </c>
       <c r="D19" s="3">
         <v>1.00062953587435</v>
       </c>
       <c r="E19" s="3">
-        <v>1.0244715150836401</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.02447151508364</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="13.55" customHeight="1">
       <c r="B20" s="3">
-        <v>0.98047044436442898</v>
+        <v>0.980470444364429</v>
       </c>
       <c r="C20" s="3">
-        <v>0.94748647467937597</v>
+        <v>0.947486474679376</v>
       </c>
       <c r="D20" s="3">
         <v>1.00973075538765</v>
       </c>
       <c r="E20" s="3">
-        <v>1.0300178571946601</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.03001785719466</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="13.55" customHeight="1">
       <c r="B21" s="3">
-        <v>0.95020973033595502</v>
+        <v>0.950209730335955</v>
       </c>
       <c r="C21" s="3">
-        <v>0.94466067390435204</v>
+        <v>0.944660673904352</v>
       </c>
       <c r="D21" s="3">
-        <v>1.0184507984226701</v>
+        <v>1.01845079842267</v>
       </c>
       <c r="E21" s="3">
         <v>1.02069470648391</v>
@@ -1617,7 +1537,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
